--- a/100runs/run081/NotionalETEOutput081.xlsx
+++ b/100runs/run081/NotionalETEOutput081.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,16 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_SOMERSAULT_State_Update</t>
+    <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_486.MISSILE_SOMERSAULT_486</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT_286.MISSILE_SOMERSAULT_286</t>
+    <t>MISSILE_BRAVER_236.MISSILE_BRAVER_236</t>
   </si>
   <si>
-    <t>MISSILE_SOMERSAULT</t>
+    <t>MISSILE_BRAVER_72.MISSILE_BRAVER_72</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND_53.MISSILE_HIGHWIND_53</t>
+  </si>
+  <si>
+    <t>MISSILE_BRAVER</t>
+  </si>
+  <si>
+    <t>MISSILE_HIGHWIND</t>
   </si>
 </sst>
 </file>
@@ -416,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,31 +474,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G2">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H2">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I2">
-        <v>-753.2323889778187</v>
+        <v>1114862.949090376</v>
       </c>
       <c r="J2">
-        <v>2084.594173114704</v>
+        <v>4843226.893064559</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984373.560509165</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,31 +509,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G3">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H3">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I3">
-        <v>-738.3615759594064</v>
+        <v>1114892.563129119</v>
       </c>
       <c r="J3">
-        <v>2033.884764440669</v>
+        <v>4843178.241439975</v>
       </c>
       <c r="K3">
-        <v>457.494686425932</v>
+        <v>3984677.356748131</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,31 +544,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G4">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H4">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I4">
-        <v>-723.1245828513129</v>
+        <v>1114922.906386322</v>
       </c>
       <c r="J4">
-        <v>1983.175355766634</v>
+        <v>4843129.58981539</v>
       </c>
       <c r="K4">
-        <v>892.1765907063094</v>
+        <v>3984966.00431407</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,31 +579,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G5">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H5">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I5">
-        <v>-707.5123928057091</v>
+        <v>1114953.996818318</v>
       </c>
       <c r="J5">
-        <v>1932.465947092599</v>
+        <v>4843080.938190808</v>
       </c>
       <c r="K5">
-        <v>1304.045712841135</v>
+        <v>3985239.503206982</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,31 +614,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G6">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H6">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I6">
-        <v>-691.5157669431838</v>
+        <v>1114985.852823599</v>
       </c>
       <c r="J6">
-        <v>1881.756538418564</v>
+        <v>4843032.286566224</v>
       </c>
       <c r="K6">
-        <v>1693.102052830407</v>
+        <v>3985497.853426867</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,31 +649,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G7">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H7">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I7">
-        <v>-675.1252388854197</v>
+        <v>1115018.493253703</v>
       </c>
       <c r="J7">
-        <v>1831.047129744529</v>
+        <v>4842983.63494164</v>
       </c>
       <c r="K7">
-        <v>2059.345610674128</v>
+        <v>3985741.054973726</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,31 +684,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G8">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H8">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I8">
-        <v>-658.3311091532424</v>
+        <v>1115051.93742437</v>
       </c>
       <c r="J8">
-        <v>1780.337721070494</v>
+        <v>4842934.983317056</v>
       </c>
       <c r="K8">
-        <v>2402.776386372295</v>
+        <v>3985969.107847557</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,31 +719,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G9">
-        <v>-96.71233597056374</v>
+        <v>4841114.547746288</v>
       </c>
       <c r="H9">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I9">
-        <v>-641.1234394267265</v>
+        <v>1115086.205126972</v>
       </c>
       <c r="J9">
-        <v>1729.628312396459</v>
+        <v>4842886.331692472</v>
       </c>
       <c r="K9">
-        <v>2723.39437992491</v>
+        <v>3986182.012048363</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,31 +754,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>296.404850003688</v>
+        <v>1116580.164411864</v>
       </c>
       <c r="G10">
-        <v>-80.74240702866302</v>
+        <v>4841131.060531336</v>
       </c>
       <c r="H10">
-        <v>513.9215597998688</v>
+        <v>3985228.646150233</v>
       </c>
       <c r="I10">
-        <v>-623.4920466639609</v>
+        <v>1115121.316640225</v>
       </c>
       <c r="J10">
-        <v>1678.918903722424</v>
+        <v>4842837.680067888</v>
       </c>
       <c r="K10">
-        <v>3021.19959133197</v>
+        <v>3986379.767576141</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,31 +789,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>230.0447411429914</v>
+        <v>1116531.483775696</v>
       </c>
       <c r="G11">
-        <v>-64.77247808676232</v>
+        <v>4841147.573316383</v>
       </c>
       <c r="H11">
-        <v>633.1479034665774</v>
+        <v>3985427.900572896</v>
       </c>
       <c r="I11">
-        <v>-605.4264970749961</v>
+        <v>1115157.292742189</v>
       </c>
       <c r="J11">
-        <v>1628.209495048389</v>
+        <v>4842789.028443306</v>
       </c>
       <c r="K11">
-        <v>3296.192020593478</v>
+        <v>3986562.374430892</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,31 +824,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>191.0615061697501</v>
+        <v>1116502.886344033</v>
       </c>
       <c r="G12">
-        <v>-48.80254914486162</v>
+        <v>4841164.086101431</v>
       </c>
       <c r="H12">
-        <v>704.1652112211694</v>
+        <v>3985546.586697293</v>
       </c>
       <c r="I12">
-        <v>-586.9160999474039</v>
+        <v>1115194.154722567</v>
       </c>
       <c r="J12">
-        <v>1577.500086374354</v>
+        <v>4842740.376818721</v>
       </c>
       <c r="K12">
-        <v>3548.371667709433</v>
+        <v>3986729.832612617</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,31 +859,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>166.4524282998226</v>
+        <v>1116484.833547153</v>
       </c>
       <c r="G13">
-        <v>-32.8326202029609</v>
+        <v>4841180.59888648</v>
       </c>
       <c r="H13">
-        <v>754.916481197041</v>
+        <v>3985631.403648711</v>
       </c>
       <c r="I13">
-        <v>-567.9499013197976</v>
+        <v>1115231.924395299</v>
       </c>
       <c r="J13">
-        <v>1526.790677700319</v>
+        <v>4842691.725194138</v>
       </c>
       <c r="K13">
-        <v>3777.738532679837</v>
+        <v>3986882.142121315</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,31 +894,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>149.2901572874467</v>
+        <v>1116472.24359989</v>
       </c>
       <c r="G14">
-        <v>-16.86269126106018</v>
+        <v>4841197.111671527</v>
       </c>
       <c r="H14">
-        <v>794.4364679372394</v>
+        <v>3985697.450563339</v>
       </c>
       <c r="I14">
-        <v>-548.5166774995696</v>
+        <v>1115270.624111475</v>
       </c>
       <c r="J14">
-        <v>1476.081269026284</v>
+        <v>4842643.073569554</v>
       </c>
       <c r="K14">
-        <v>3984.292615504687</v>
+        <v>3987019.302956986</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -920,31 +929,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>136.4865891608379</v>
+        <v>1116462.851122205</v>
       </c>
       <c r="G15">
-        <v>-0.8927623191594787</v>
+        <v>4841213.624456576</v>
       </c>
       <c r="H15">
-        <v>826.8064025270543</v>
+        <v>3985751.548109485</v>
       </c>
       <c r="I15">
-        <v>-528.6049284210065</v>
+        <v>1115310.276772558</v>
       </c>
       <c r="J15">
-        <v>1425.371860352249</v>
+        <v>4842594.42194497</v>
       </c>
       <c r="K15">
-        <v>4168.033916183983</v>
+        <v>3987141.31511963</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,31 +964,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>126.4759868511112</v>
+        <v>1116455.507516277</v>
       </c>
       <c r="G16">
-        <v>15.07716662274124</v>
+        <v>4841230.137241623</v>
       </c>
       <c r="H16">
-        <v>854.2213742339262</v>
+        <v>3985797.364782142</v>
       </c>
       <c r="I16">
-        <v>-508.2028708398571</v>
+        <v>1115350.905843941</v>
       </c>
       <c r="J16">
-        <v>1374.662451678214</v>
+        <v>4842545.770320386</v>
       </c>
       <c r="K16">
-        <v>4328.962434717728</v>
+        <v>3987248.178609247</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -990,31 +999,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>118.3766806866876</v>
+        <v>1116449.566004375</v>
       </c>
       <c r="G17">
-        <v>31.04709556464195</v>
+        <v>4841246.650026672</v>
       </c>
       <c r="H17">
-        <v>877.9988691791843</v>
+        <v>3985837.102401211</v>
       </c>
       <c r="I17">
-        <v>-487.2984313603205</v>
+        <v>1115392.535368829</v>
       </c>
       <c r="J17">
-        <v>1323.953043004179</v>
+        <v>4842497.118695802</v>
       </c>
       <c r="K17">
-        <v>4467.078171105918</v>
+        <v>3987339.893425838</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1025,31 +1034,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>111.6513706257558</v>
+        <v>1116444.632432417</v>
       </c>
       <c r="G18">
-        <v>47.01702450654265</v>
+        <v>4841263.16281172</v>
       </c>
       <c r="H18">
-        <v>898.992044344782</v>
+        <v>3985872.186786666</v>
       </c>
       <c r="I18">
-        <v>-465.8792392903323</v>
+        <v>1115435.189982468</v>
       </c>
       <c r="J18">
-        <v>1273.243634330144</v>
+        <v>4842448.467071219</v>
       </c>
       <c r="K18">
-        <v>4582.381125348557</v>
+        <v>3987416.459569402</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1060,31 +1069,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>105.9521763658252</v>
+        <v>1116440.451601388</v>
       </c>
       <c r="G19">
-        <v>62.98695344844339</v>
+        <v>4841279.675596767</v>
       </c>
       <c r="H19">
-        <v>917.7851605510921</v>
+        <v>3985903.594371639</v>
       </c>
       <c r="I19">
-        <v>-443.9326193209157</v>
+        <v>1115478.894926728</v>
       </c>
       <c r="J19">
-        <v>1222.534225656109</v>
+        <v>4842399.815446636</v>
       </c>
       <c r="K19">
-        <v>4674.871297445643</v>
+        <v>3987477.877039939</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,31 +1104,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>101.0428765263746</v>
+        <v>1116436.85022334</v>
       </c>
       <c r="G20">
-        <v>78.95688239034409</v>
+        <v>4841296.188381815</v>
       </c>
       <c r="H20">
-        <v>934.7959154878494</v>
+        <v>3985932.023224271</v>
       </c>
       <c r="I20">
-        <v>-421.4455840252724</v>
+        <v>1115523.676065031</v>
       </c>
       <c r="J20">
-        <v>1171.824816982074</v>
+        <v>4842351.163822051</v>
       </c>
       <c r="K20">
-        <v>4744.548687397176</v>
+        <v>3987524.145837449</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,31 +1139,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>96.75680409449689</v>
+        <v>1116433.706034214</v>
       </c>
       <c r="G21">
-        <v>94.92681133224478</v>
+        <v>4841312.701166864</v>
       </c>
       <c r="H21">
-        <v>950.3332977980203</v>
+        <v>3985957.989735084</v>
       </c>
       <c r="I21">
-        <v>-398.4048261731672</v>
+        <v>1115569.559897667</v>
       </c>
       <c r="J21">
-        <v>1121.115408308039</v>
+        <v>4842302.512197467</v>
       </c>
       <c r="K21">
-        <v>4791.413295203155</v>
+        <v>3987555.265961932</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,31 +1174,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>92.97260723360692</v>
+        <v>1116430.930012389</v>
       </c>
       <c r="G22">
-        <v>110.8967402741455</v>
+        <v>4841329.213951911</v>
       </c>
       <c r="H22">
-        <v>964.6323171640018</v>
+        <v>3985981.886658874</v>
       </c>
       <c r="I22">
-        <v>-374.7967108560622</v>
+        <v>1115616.57357747</v>
       </c>
       <c r="J22">
-        <v>1070.405999634004</v>
+        <v>4842253.860572884</v>
       </c>
       <c r="K22">
-        <v>4815.465120863582</v>
+        <v>3987571.237413389</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1200,31 +1209,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>89.59957500291377</v>
+        <v>1116428.455613874</v>
       </c>
       <c r="G23">
-        <v>126.8666692160462</v>
+        <v>4841345.726736959</v>
       </c>
       <c r="H23">
-        <v>977.8758850706581</v>
+        <v>3986004.019682467</v>
       </c>
       <c r="I23">
-        <v>-350.6072674183414</v>
+        <v>1115664.744925886</v>
       </c>
       <c r="J23">
-        <v>1019.696590959969</v>
+        <v>4842205.2089483</v>
       </c>
       <c r="K23">
-        <v>4816.704164378457</v>
+        <v>3987572.060191819</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1235,31 +1244,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>86.5683728440311</v>
+        <v>1116426.231976029</v>
       </c>
       <c r="G24">
-        <v>142.836598157947</v>
+        <v>4841362.239522007</v>
       </c>
       <c r="H24">
-        <v>990.2091600107859</v>
+        <v>3986024.631398822</v>
       </c>
       <c r="I24">
-        <v>-325.8221811898467</v>
+        <v>1115714.10244944</v>
       </c>
       <c r="J24">
-        <v>968.9871822859341</v>
+        <v>4842156.557323717</v>
       </c>
       <c r="K24">
-        <v>4795.130425747778</v>
+        <v>3987557.734297221</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1270,31 +1279,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>83.82498201174559</v>
+        <v>1116424.219471631</v>
       </c>
       <c r="G25">
-        <v>158.8065270998476</v>
+        <v>4841378.752307055</v>
       </c>
       <c r="H25">
-        <v>1001.749271669081</v>
+        <v>3986043.917558367</v>
       </c>
       <c r="I25">
-        <v>-300.4267850148364</v>
+        <v>1115764.675356603</v>
       </c>
       <c r="J25">
-        <v>918.2777736118993</v>
+        <v>4842107.905699133</v>
       </c>
       <c r="K25">
-        <v>4750.743904971547</v>
+        <v>3987528.259729597</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1305,31 +1314,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>81.32661240891908</v>
+        <v>1116422.386710598</v>
       </c>
       <c r="G26">
-        <v>174.7764560417484</v>
+        <v>4841395.265092103</v>
       </c>
       <c r="H26">
-        <v>1012.592102757063</v>
+        <v>3986062.03840299</v>
       </c>
       <c r="I26">
-        <v>-274.4060505723526</v>
+        <v>1115816.493575079</v>
       </c>
       <c r="J26">
-        <v>867.5683649378642</v>
+        <v>4842059.254074549</v>
       </c>
       <c r="K26">
-        <v>4683.544602049762</v>
+        <v>3987483.636488947</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1340,31 +1349,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>79.03887261775562</v>
+        <v>1116420.708463978</v>
       </c>
       <c r="G27">
-        <v>190.7463849836491</v>
+        <v>4841411.77787715</v>
       </c>
       <c r="H27">
-        <v>1022.817136163113</v>
+        <v>3986079.12676673</v>
       </c>
       <c r="I27">
-        <v>-247.7445794828594</v>
+        <v>1115869.587769513</v>
       </c>
       <c r="J27">
-        <v>816.8589562638292</v>
+        <v>4842010.602449965</v>
       </c>
       <c r="K27">
-        <v>4593.532516982425</v>
+        <v>3987423.86457527</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1375,31 +1384,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>76.93376470919718</v>
+        <v>1116419.16419297</v>
       </c>
       <c r="G28">
-        <v>206.7163139255498</v>
+        <v>4841428.290662198</v>
       </c>
       <c r="H28">
-        <v>1032.490994120154</v>
+        <v>3986095.29399054</v>
       </c>
       <c r="I28">
-        <v>-220.4265941958912</v>
+        <v>1115923.98935964</v>
       </c>
       <c r="J28">
-        <v>766.1495475897943</v>
+        <v>4841961.950825381</v>
       </c>
       <c r="K28">
-        <v>4480.707649769535</v>
+        <v>3987348.943988565</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1410,31 +1419,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>74.98823426349061</v>
+        <v>1116417.736985248</v>
       </c>
       <c r="G29">
-        <v>222.6862428674505</v>
+        <v>4841444.803447247</v>
       </c>
       <c r="H29">
-        <v>1041.670071334284</v>
+        <v>3986110.634322842</v>
       </c>
       <c r="I29">
-        <v>-192.4359286533168</v>
+        <v>1115979.730538874</v>
       </c>
       <c r="J29">
-        <v>715.4401389157593</v>
+        <v>4841913.299200797</v>
       </c>
       <c r="K29">
-        <v>4345.070000411092</v>
+        <v>3987258.874728835</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1445,31 +1454,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>73.18310275372259</v>
+        <v>1116416.412771774</v>
       </c>
       <c r="G30">
-        <v>238.6561718093512</v>
+        <v>4841461.316232295</v>
       </c>
       <c r="H30">
-        <v>1050.402526908248</v>
+        <v>3986125.228248482</v>
       </c>
       <c r="I30">
-        <v>-163.7560187226966</v>
+        <v>1116036.844293367</v>
       </c>
       <c r="J30">
-        <v>664.7307302417242</v>
+        <v>4841864.647576215</v>
       </c>
       <c r="K30">
-        <v>4186.619568907096</v>
+        <v>3987153.656796077</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1480,31 +1489,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>71.50226865589853</v>
+        <v>1116415.179740748</v>
       </c>
       <c r="G31">
-        <v>254.6261007512519</v>
+        <v>4841477.829017343</v>
       </c>
       <c r="H31">
-        <v>1058.72981376128</v>
+        <v>3986139.145044747</v>
       </c>
       <c r="I31">
-        <v>-134.3698923950683</v>
+        <v>1116095.36442152</v>
       </c>
       <c r="J31">
-        <v>614.0213215676894</v>
+        <v>4841815.99595163</v>
       </c>
       <c r="K31">
-        <v>4005.356355257548</v>
+        <v>3987033.290190292</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1515,31 +1524,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>69.93210089053528</v>
+        <v>1116414.027892642</v>
       </c>
       <c r="G32">
-        <v>270.5960296931527</v>
+        <v>4841494.341802391</v>
       </c>
       <c r="H32">
-        <v>1066.687868712871</v>
+        <v>3986152.444770262</v>
       </c>
       <c r="I32">
-        <v>-104.2601597413627</v>
+        <v>1116155.325553991</v>
       </c>
       <c r="J32">
-        <v>563.3119128936544</v>
+        <v>4841767.344327047</v>
       </c>
       <c r="K32">
-        <v>3801.280359462446</v>
+        <v>3986897.77491148</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,31 +1559,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>68.46097219660135</v>
+        <v>1116412.948697897</v>
       </c>
       <c r="G33">
-        <v>286.5659586350533</v>
+        <v>4841510.854587439</v>
       </c>
       <c r="H33">
-        <v>1074.308049751816</v>
+        <v>3986165.17983138</v>
       </c>
       <c r="I33">
-        <v>-73.40900262150559</v>
+        <v>1116216.763174186</v>
       </c>
       <c r="J33">
-        <v>512.6025042196195</v>
+        <v>4841718.692702463</v>
       </c>
       <c r="K33">
-        <v>3574.391581521792</v>
+        <v>3986747.110959643</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1585,31 +1594,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>67.07889584000506</v>
+        <v>1116411.934830419</v>
       </c>
       <c r="G34">
-        <v>302.5358875769541</v>
+        <v>4841527.367372487</v>
       </c>
       <c r="H34">
-        <v>1081.61788232032</v>
+        <v>3986177.396229396</v>
       </c>
       <c r="I34">
-        <v>-41.79816414011603</v>
+        <v>1116279.713639257</v>
       </c>
       <c r="J34">
-        <v>461.8930955455845</v>
+        <v>4841670.041077879</v>
       </c>
       <c r="K34">
-        <v>3324.690021435585</v>
+        <v>3986581.298334777</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1620,31 +1629,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>65.77723967106496</v>
+        <v>1116410.979957808</v>
       </c>
       <c r="G35">
-        <v>318.5058165188548</v>
+        <v>4841543.880157534</v>
       </c>
       <c r="H35">
-        <v>1088.64165949004</v>
+        <v>3986189.134563575</v>
       </c>
       <c r="I35">
-        <v>-9.408937842560549</v>
+        <v>1116344.214201617</v>
       </c>
       <c r="J35">
-        <v>411.1836868715494</v>
+        <v>4841621.389453295</v>
       </c>
       <c r="K35">
-        <v>3052.175679203824</v>
+        <v>3986400.337036885</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1655,31 +1664,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>64.54849880137385</v>
+        <v>1116410.078574609</v>
       </c>
       <c r="G36">
-        <v>334.4757454607555</v>
+        <v>4841560.392942582</v>
       </c>
       <c r="H36">
-        <v>1095.400929066687</v>
+        <v>3986200.430845216</v>
       </c>
       <c r="I36">
-        <v>23.77784335503052</v>
+        <v>1116410.303030985</v>
       </c>
       <c r="J36">
-        <v>360.4742781975146</v>
+        <v>4841572.737828712</v>
       </c>
       <c r="K36">
-        <v>2756.848554826512</v>
+        <v>3986204.227065967</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1690,31 +1699,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>63.38611321353745</v>
+        <v>1116409.225868505</v>
       </c>
       <c r="G37">
-        <v>350.4456744026562</v>
+        <v>4841576.90572763</v>
       </c>
       <c r="H37">
-        <v>1101.914892260484</v>
+        <v>3986211.317163923</v>
       </c>
       <c r="I37">
-        <v>57.78181850833334</v>
+        <v>1116478.019236976</v>
       </c>
       <c r="J37">
-        <v>309.7648695234795</v>
+        <v>4841524.086204128</v>
       </c>
       <c r="K37">
-        <v>2438.708648303646</v>
+        <v>3985992.968422022</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1725,31 +1734,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>62.28432017527631</v>
+        <v>1116408.417612055</v>
       </c>
       <c r="G38">
-        <v>366.4156033445569</v>
+        <v>4841593.418512678</v>
       </c>
       <c r="H38">
-        <v>1108.20073251564</v>
+        <v>3986221.822237152</v>
       </c>
       <c r="I38">
-        <v>92.62311026670304</v>
+        <v>1116547.402892242</v>
       </c>
       <c r="J38">
-        <v>259.0554608494447</v>
+        <v>4841475.434579545</v>
       </c>
       <c r="K38">
-        <v>2097.755959635228</v>
+        <v>3985766.561105049</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1760,31 +1769,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>61.23803387458422</v>
+        <v>1116407.650074394</v>
       </c>
       <c r="G39">
-        <v>382.3855322864576</v>
+        <v>4841609.931297726</v>
       </c>
       <c r="H39">
-        <v>1114.273888685284</v>
+        <v>3986231.971866748</v>
       </c>
       <c r="I39">
-        <v>128.3223367812216</v>
+        <v>1116618.495056187</v>
       </c>
       <c r="J39">
-        <v>208.3460521754097</v>
+        <v>4841426.78295496</v>
       </c>
       <c r="K39">
-        <v>1733.990488821256</v>
+        <v>3985525.00511505</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1795,31 +1804,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>60.2427465366949</v>
+        <v>1116406.919948696</v>
       </c>
       <c r="G40">
-        <v>398.3554612283583</v>
+        <v>4841626.444082774</v>
       </c>
       <c r="H40">
-        <v>1120.148283486211</v>
+        <v>3986241.789320748</v>
       </c>
       <c r="I40">
-        <v>164.9006239059742</v>
+        <v>1116691.337799266</v>
       </c>
       <c r="J40">
-        <v>157.6366435013746</v>
+        <v>4841378.131330376</v>
       </c>
       <c r="K40">
-        <v>1347.412235861731</v>
+        <v>3985268.300452025</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1830,31 +1839,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>59.29444663555812</v>
+        <v>1116406.224292175</v>
       </c>
       <c r="G41">
-        <v>414.325390170259</v>
+        <v>4841642.956867822</v>
       </c>
       <c r="H41">
-        <v>1125.83651574074</v>
+        <v>3986251.295654659</v>
       </c>
       <c r="I41">
-        <v>202.3796176997663</v>
+        <v>1116765.974227878</v>
       </c>
       <c r="J41">
-        <v>106.9272348273398</v>
+        <v>4841329.479705793</v>
       </c>
       <c r="K41">
-        <v>938.0212007566548</v>
+        <v>3984996.447115972</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1865,31 +1874,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>58.38955081464119</v>
+        <v>1116405.560476142</v>
       </c>
       <c r="G42">
-        <v>430.2953191121597</v>
+        <v>4841659.46965287</v>
       </c>
       <c r="H42">
-        <v>1131.350023082786</v>
+        <v>3986260.509983376</v>
       </c>
       <c r="I42">
-        <v>240.7814972356892</v>
+        <v>1116842.448509882</v>
       </c>
       <c r="J42">
-        <v>56.21782615330471</v>
+        <v>4841280.82808121</v>
       </c>
       <c r="K42">
-        <v>505.8173835060242</v>
+        <v>3984709.445106892</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1900,31 +1909,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>57.52484688229509</v>
+        <v>1116404.926144188</v>
       </c>
       <c r="G43">
-        <v>446.2652480540605</v>
+        <v>4841675.982437918</v>
       </c>
       <c r="H43">
-        <v>1136.699220411595</v>
+        <v>3986269.449712573</v>
       </c>
       <c r="I43">
-        <v>280.1289877261026</v>
+        <v>1116920.805900724</v>
       </c>
       <c r="J43">
-        <v>5.508417479269652</v>
+        <v>4841232.176456626</v>
       </c>
       <c r="K43">
-        <v>50.80078410984108</v>
+        <v>3984407.294424786</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1935,31 +1944,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>56.69744581428103</v>
+        <v>1116404.319176974</v>
       </c>
       <c r="G44">
-        <v>462.2351769959612</v>
+        <v>4841692.495222966</v>
       </c>
       <c r="H44">
-        <v>1141.893618305819</v>
+        <v>3986278.130736595</v>
       </c>
       <c r="I44">
-        <v>320.4453739708145</v>
+        <v>1117001.092770228</v>
       </c>
       <c r="J44">
-        <v>-45.20099119476517</v>
+        <v>4841183.524832042</v>
       </c>
       <c r="K44">
-        <v>-427.0285974318936</v>
+        <v>3984089.995069653</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1970,31 +1979,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>55.90474112884026</v>
+        <v>1116403.737662431</v>
       </c>
       <c r="G45">
-        <v>478.2051059378618</v>
+        <v>4841709.008008014</v>
       </c>
       <c r="H45">
-        <v>1146.941924780849</v>
+        <v>3986286.567608524</v>
       </c>
       <c r="I45">
-        <v>361.7545141364075</v>
+        <v>1117083.356630032</v>
       </c>
       <c r="J45">
-        <v>-95.91039986880023</v>
+        <v>4841134.873207458</v>
       </c>
       <c r="K45">
-        <v>-927.6707611191824</v>
+        <v>3983757.547041493</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2005,31 +2014,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>55.14437433260598</v>
+        <v>1116403.179870408</v>
       </c>
       <c r="G46">
-        <v>494.1750348797626</v>
+        <v>4841725.520793062</v>
       </c>
       <c r="H46">
-        <v>1151.85213312428</v>
+        <v>3986294.773686967</v>
       </c>
       <c r="I46">
-        <v>404.0808538748664</v>
+        <v>1117167.646161702</v>
       </c>
       <c r="J46">
-        <v>-146.6198085428353</v>
+        <v>4841086.221582874</v>
       </c>
       <c r="K46">
-        <v>-1451.125706952025</v>
+        <v>3983409.950340307</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2040,31 +2049,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>54.41420539378178</v>
+        <v>1116402.644231015</v>
       </c>
       <c r="G47">
-        <v>510.1449638216633</v>
+        <v>4841742.03357811</v>
       </c>
       <c r="H47">
-        <v>1156.631598034409</v>
+        <v>3986302.761263304</v>
       </c>
       <c r="I47">
-        <v>447.4494407898661</v>
+        <v>1117254.011245543</v>
       </c>
       <c r="J47">
-        <v>-197.3292172168703</v>
+        <v>4841037.56995829</v>
       </c>
       <c r="K47">
-        <v>-1997.39343493042</v>
+        <v>3983047.204966093</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2075,31 +2084,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>53.71228740062408</v>
+        <v>1116402.129316031</v>
       </c>
       <c r="G48">
-        <v>526.1148927635639</v>
+        <v>4841758.546363158</v>
       </c>
       <c r="H48">
-        <v>1161.287101882588</v>
+        <v>3986310.541672423</v>
       </c>
       <c r="I48">
-        <v>491.8859392592792</v>
+        <v>1117342.502990121</v>
       </c>
       <c r="J48">
-        <v>-248.0386258909049</v>
+        <v>4840988.918333707</v>
       </c>
       <c r="K48">
-        <v>-2566.473945054364</v>
+        <v>3982669.310918853</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2110,31 +2119,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>53.03684472185729</v>
+        <v>1116401.633822882</v>
       </c>
       <c r="G49">
-        <v>542.0848217054647</v>
+        <v>4841775.059148205</v>
       </c>
       <c r="H49">
-        <v>1165.824912597916</v>
+        <v>3986318.125389464</v>
       </c>
       <c r="I49">
-        <v>537.4166456226731</v>
+        <v>1117433.173762497</v>
       </c>
       <c r="J49">
-        <v>-298.74803456494</v>
+        <v>4840940.266709124</v>
       </c>
       <c r="K49">
-        <v>-3158.367237323864</v>
+        <v>3982276.268198587</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2145,31 +2154,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>52.38625411121826</v>
+        <v>1116401.156560783</v>
       </c>
       <c r="G50">
-        <v>558.0547506473655</v>
+        <v>4841791.571933254</v>
       </c>
       <c r="H50">
-        <v>1170.250834414021</v>
+        <v>3986325.522114627</v>
       </c>
       <c r="I50">
-        <v>584.0685037427834</v>
+        <v>1117526.077219228</v>
       </c>
       <c r="J50">
-        <v>-349.457443238975</v>
+        <v>4840891.615084539</v>
       </c>
       <c r="K50">
-        <v>-3773.073311738918</v>
+        <v>3981868.076805292</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2180,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>51.75902829837603</v>
+        <v>1116400.696438699</v>
       </c>
       <c r="G51">
-        <v>574.0246795892662</v>
+        <v>4841808.084718302</v>
       </c>
       <c r="H51">
-        <v>1174.570252508808</v>
+        <v>3986332.740847771</v>
       </c>
       <c r="I51">
-        <v>631.869120950179</v>
+        <v>1117621.268338111</v>
       </c>
       <c r="J51">
-        <v>-400.1668519130101</v>
+        <v>4840842.963459956</v>
       </c>
       <c r="K51">
-        <v>-4410.592168299525</v>
+        <v>3981444.736738972</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2215,31 +2224,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>51.1538016886655</v>
+        <v>1116400.252454852</v>
       </c>
       <c r="G52">
-        <v>589.9946085311669</v>
+        <v>4841824.597503349</v>
       </c>
       <c r="H52">
-        <v>1178.788172398391</v>
+        <v>3986339.789954257</v>
       </c>
       <c r="I52">
-        <v>680.8467843805457</v>
+        <v>1117718.803450723</v>
       </c>
       <c r="J52">
-        <v>-450.8762605870452</v>
+        <v>4840794.311835372</v>
       </c>
       <c r="K52">
-        <v>-5070.923807005684</v>
+        <v>3981006.247999624</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2250,31 +2259,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>50.56931785870352</v>
+        <v>1116399.823687553</v>
       </c>
       <c r="G53">
-        <v>605.9645374730676</v>
+        <v>4841841.110288397</v>
       </c>
       <c r="H53">
-        <v>1182.909254808022</v>
+        <v>3986346.677223219</v>
       </c>
       <c r="I53">
-        <v>731.0304777142599</v>
+        <v>1117818.740275752</v>
       </c>
       <c r="J53">
-        <v>-501.5856692610798</v>
+        <v>4840745.660210788</v>
       </c>
       <c r="K53">
-        <v>-5754.06822785739</v>
+        <v>3980552.61058725</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2285,31 +2294,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>50.00441858733641</v>
+        <v>1116399.409287149</v>
       </c>
       <c r="G54">
-        <v>621.9344664149683</v>
+        <v>4841857.623073446</v>
       </c>
       <c r="H54">
-        <v>1186.93784662922</v>
+        <v>3986353.409919307</v>
       </c>
       <c r="I54">
-        <v>782.4498983281663</v>
+        <v>1117921.137953157</v>
       </c>
       <c r="J54">
-        <v>-552.2950779351148</v>
+        <v>4840697.008586205</v>
       </c>
       <c r="K54">
-        <v>-6460.025430854655</v>
+        <v>3980083.824501849</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2320,31 +2329,31 @@
         <v>11</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G55">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H55">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I55">
-        <v>-1907.134163105786</v>
+        <v>1114860.294503614</v>
       </c>
       <c r="J55">
-        <v>1316.089935406945</v>
+        <v>4843219.825643569</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984367.411667766</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2355,31 +2364,31 @@
         <v>11</v>
       </c>
       <c r="C56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G56">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H56">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I56">
-        <v>-1869.482256528774</v>
+        <v>1114889.908471844</v>
       </c>
       <c r="J56">
-        <v>1284.075002597928</v>
+        <v>4843171.17408998</v>
       </c>
       <c r="K56">
-        <v>381.7434431725049</v>
+        <v>3984671.207437901</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2390,31 +2399,31 @@
         <v>11</v>
       </c>
       <c r="C57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G57">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H57">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I57">
-        <v>-1830.903206391422</v>
+        <v>1114920.251656797</v>
       </c>
       <c r="J57">
-        <v>1252.060069788912</v>
+        <v>4843122.52253639</v>
       </c>
       <c r="K57">
-        <v>744.4514084193046</v>
+        <v>3984959.854558388</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2425,31 +2434,31 @@
         <v>11</v>
       </c>
       <c r="C58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G58">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H58">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I58">
-        <v>-1791.374182636513</v>
+        <v>1114951.342014764</v>
       </c>
       <c r="J58">
-        <v>1220.045136979895</v>
+        <v>4843073.870982801</v>
       </c>
       <c r="K58">
-        <v>1088.123895740402</v>
+        <v>3985233.353029226</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2460,31 +2469,31 @@
         <v>11</v>
       </c>
       <c r="C59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G59">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H59">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I59">
-        <v>-1750.871793037675</v>
+        <v>1114983.197944193</v>
       </c>
       <c r="J59">
-        <v>1188.030204170878</v>
+        <v>4843025.219429212</v>
       </c>
       <c r="K59">
-        <v>1412.760905135794</v>
+        <v>3985491.702850415</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2495,31 +2504,31 @@
         <v>11</v>
       </c>
       <c r="C60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G60">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H60">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I60">
-        <v>-1709.372069356479</v>
+        <v>1115015.838296578</v>
       </c>
       <c r="J60">
-        <v>1156.015271361861</v>
+        <v>4842976.567875623</v>
       </c>
       <c r="K60">
-        <v>1718.362436605484</v>
+        <v>3985734.904021956</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2530,31 +2539,31 @@
         <v>11</v>
       </c>
       <c r="C61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G61">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H61">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I61">
-        <v>-1666.850453158681</v>
+        <v>1115049.282387611</v>
       </c>
       <c r="J61">
-        <v>1124.000338552845</v>
+        <v>4842927.916322033</v>
       </c>
       <c r="K61">
-        <v>2004.92849014947</v>
+        <v>3985962.956543847</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2565,31 +2574,31 @@
         <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G62">
-        <v>-130.052846027884</v>
+        <v>4841128.238840504</v>
       </c>
       <c r="H62">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I62">
-        <v>-1623.281781281181</v>
+        <v>1115083.550008619</v>
       </c>
       <c r="J62">
-        <v>1091.985405743828</v>
+        <v>4842879.264768443</v>
       </c>
       <c r="K62">
-        <v>2272.459065767751</v>
+        <v>3986175.86041609</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2600,31 +2609,31 @@
         <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>177.5230345712072</v>
+        <v>1116577.687269182</v>
       </c>
       <c r="G63">
-        <v>-108.5774604019033</v>
+        <v>4841144.751672251</v>
       </c>
       <c r="H63">
-        <v>1195.212554546925</v>
+        <v>3985229.430267892</v>
       </c>
       <c r="I63">
-        <v>-1578.640270941141</v>
+        <v>1115118.661438267</v>
       </c>
       <c r="J63">
-        <v>1059.970472934811</v>
+        <v>4842830.613214854</v>
       </c>
       <c r="K63">
-        <v>2520.954163460329</v>
+        <v>3986373.615638684</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2635,31 +2644,31 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>137.7785840357995</v>
+        <v>1116529.006741013</v>
       </c>
       <c r="G64">
-        <v>-87.10207477592256</v>
+        <v>4841161.264503999</v>
       </c>
       <c r="H64">
-        <v>1472.49382454982</v>
+        <v>3985428.684729761</v>
       </c>
       <c r="I64">
-        <v>-1532.899504478414</v>
+        <v>1115154.63745457</v>
       </c>
       <c r="J64">
-        <v>1027.955540125794</v>
+        <v>4842781.961661265</v>
       </c>
       <c r="K64">
-        <v>2750.413783227202</v>
+        <v>3986556.22221163</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2670,31 +2679,31 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>114.4307131431131</v>
+        <v>1116500.409372793</v>
       </c>
       <c r="G65">
-        <v>-65.62668914994187</v>
+        <v>4841177.777335746</v>
       </c>
       <c r="H65">
-        <v>1637.656729666051</v>
+        <v>3985547.370877509</v>
       </c>
       <c r="I65">
-        <v>-1486.032413722276</v>
+        <v>1115191.499347176</v>
       </c>
       <c r="J65">
-        <v>995.9406073167776</v>
+        <v>4842733.310107674</v>
       </c>
       <c r="K65">
-        <v>2960.837925068373</v>
+        <v>3986723.680134926</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2705,31 +2714,31 @@
         <v>11</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>99.69182414917681</v>
+        <v>1116482.356615963</v>
       </c>
       <c r="G66">
-        <v>-44.15130352396115</v>
+        <v>4841194.290167494</v>
       </c>
       <c r="H66">
-        <v>1755.687495018615</v>
+        <v>3985632.187845616</v>
       </c>
       <c r="I66">
-        <v>-1438.0112639732</v>
+        <v>1115229.268929975</v>
       </c>
       <c r="J66">
-        <v>963.9256745077608</v>
+        <v>4842684.658554086</v>
       </c>
       <c r="K66">
-        <v>3152.22658898384</v>
+        <v>3986875.989408574</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2740,31 +2749,31 @@
         <v>11</v>
       </c>
       <c r="C67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>89.41298279346852</v>
+        <v>1116469.766696631</v>
       </c>
       <c r="G67">
-        <v>-22.67591789798044</v>
+        <v>4841210.802999241</v>
       </c>
       <c r="H67">
-        <v>1847.597988763628</v>
+        <v>3985698.234773239</v>
       </c>
       <c r="I67">
-        <v>-1388.807637590201</v>
+        <v>1115267.968554003</v>
       </c>
       <c r="J67">
-        <v>931.910741698744</v>
+        <v>4842636.007000497</v>
       </c>
       <c r="K67">
-        <v>3324.579774973603</v>
+        <v>3987013.150032573</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2775,31 +2784,31 @@
         <v>11</v>
       </c>
       <c r="C68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>81.74465932593243</v>
+        <v>1116460.374239784</v>
       </c>
       <c r="G68">
-        <v>-1.200532271999753</v>
+        <v>4841227.315830989</v>
       </c>
       <c r="H68">
-        <v>1922.879812368529</v>
+        <v>3985752.332330029</v>
       </c>
       <c r="I68">
-        <v>-1338.392417174028</v>
+        <v>1115307.62112067</v>
       </c>
       <c r="J68">
-        <v>899.8958088897274</v>
+        <v>4842587.355446908</v>
       </c>
       <c r="K68">
-        <v>3477.897483037662</v>
+        <v>3987135.162006923</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2810,31 +2819,31 @@
         <v>11</v>
       </c>
       <c r="C69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>75.74910122394419</v>
+        <v>1116453.030650147</v>
       </c>
       <c r="G69">
-        <v>20.27485335398096</v>
+        <v>4841243.828662736</v>
       </c>
       <c r="H69">
-        <v>1986.638021655102</v>
+        <v>3985798.1490117</v>
       </c>
       <c r="I69">
-        <v>-1286.735768336258</v>
+        <v>1115348.250095312</v>
       </c>
       <c r="J69">
-        <v>867.8808760807106</v>
+        <v>4842538.703893317</v>
       </c>
       <c r="K69">
-        <v>3612.179713176018</v>
+        <v>3987242.025331625</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2845,31 +2854,31 @@
         <v>11</v>
       </c>
       <c r="C70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>70.89825816853579</v>
+        <v>1116447.089151427</v>
       </c>
       <c r="G70">
-        <v>41.75023897996167</v>
+        <v>4841260.341494484</v>
       </c>
       <c r="H70">
-        <v>2041.936656110748</v>
+        <v>3985837.886638588</v>
       </c>
       <c r="I70">
-        <v>-1233.807122044104</v>
+        <v>1115389.879521076</v>
       </c>
       <c r="J70">
-        <v>835.8659432716939</v>
+        <v>4842490.052339728</v>
       </c>
       <c r="K70">
-        <v>3727.426465388669</v>
+        <v>3987333.740006677</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2880,31 +2889,31 @@
         <v>11</v>
       </c>
       <c r="C71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>66.87032998033632</v>
+        <v>1116442.155590414</v>
       </c>
       <c r="G71">
-        <v>63.22562460594236</v>
+        <v>4841276.854326231</v>
       </c>
       <c r="H71">
-        <v>2090.759878330684</v>
+        <v>3985872.971030945</v>
       </c>
       <c r="I71">
-        <v>-1179.575156530467</v>
+        <v>1115432.534033151</v>
       </c>
       <c r="J71">
-        <v>803.8510104626771</v>
+        <v>4842441.400786139</v>
       </c>
       <c r="K71">
-        <v>3823.637739675617</v>
+        <v>3987410.306032081</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2915,31 +2924,31 @@
         <v>11</v>
       </c>
       <c r="C72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>63.45696390477754</v>
+        <v>1116437.97476866</v>
       </c>
       <c r="G72">
-        <v>84.70101023192309</v>
+        <v>4841293.367157979</v>
       </c>
       <c r="H72">
-        <v>2134.466486859792</v>
+        <v>3985904.378622098</v>
       </c>
       <c r="I72">
-        <v>-1124.00777875855</v>
+        <v>1115476.238873345</v>
       </c>
       <c r="J72">
-        <v>771.8360776536603</v>
+        <v>4842392.749232549</v>
       </c>
       <c r="K72">
-        <v>3900.813536036862</v>
+        <v>3987471.723407837</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2950,31 +2959,31 @@
         <v>11</v>
       </c>
       <c r="C73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>60.51668203992828</v>
+        <v>1116434.373398602</v>
       </c>
       <c r="G73">
-        <v>106.1763958579038</v>
+        <v>4841309.879989726</v>
       </c>
       <c r="H73">
-        <v>2174.027909172276</v>
+        <v>3985932.807480324</v>
       </c>
       <c r="I73">
-        <v>-1067.07210543005</v>
+        <v>1115521.019905021</v>
       </c>
       <c r="J73">
-        <v>739.8211448446436</v>
+        <v>4842344.097678959</v>
       </c>
       <c r="K73">
-        <v>3958.953854472402</v>
+        <v>3987517.992133943</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2985,31 +2994,31 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>57.94966404245132</v>
+        <v>1116431.229216452</v>
       </c>
       <c r="G74">
-        <v>127.6517814838845</v>
+        <v>4841326.392821474</v>
       </c>
       <c r="H74">
-        <v>2210.162751246509</v>
+        <v>3985958.773996246</v>
       </c>
       <c r="I74">
-        <v>-1008.734443525694</v>
+        <v>1115566.903628404</v>
       </c>
       <c r="J74">
-        <v>707.8062120356268</v>
+        <v>4842295.44612537</v>
       </c>
       <c r="K74">
-        <v>3998.058694982239</v>
+        <v>3987549.1122104</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3020,31 +3029,31 @@
         <v>11</v>
       </c>
       <c r="C75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>55.6832297713803</v>
+        <v>1116428.453200785</v>
       </c>
       <c r="G75">
-        <v>149.1271671098652</v>
+        <v>4841342.905653222</v>
       </c>
       <c r="H75">
-        <v>2243.417568325181</v>
+        <v>3985982.670924738</v>
       </c>
       <c r="I75">
-        <v>-948.9602703666087</v>
+        <v>1115613.917196262</v>
       </c>
       <c r="J75">
-        <v>675.7912792266102</v>
+        <v>4842246.794571782</v>
       </c>
       <c r="K75">
-        <v>4018.128057566372</v>
+        <v>3987565.083637209</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3055,31 +3064,31 @@
         <v>11</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>53.66305055605475</v>
+        <v>1116425.978807759</v>
       </c>
       <c r="G76">
-        <v>170.6025527358459</v>
+        <v>4841359.418484969</v>
       </c>
       <c r="H76">
-        <v>2274.217752375048</v>
+        <v>3986004.803952686</v>
       </c>
       <c r="I76">
-        <v>-887.7142131847116</v>
+        <v>1115662.088429978</v>
       </c>
       <c r="J76">
-        <v>643.7763464175933</v>
+        <v>4842198.143018192</v>
       </c>
       <c r="K76">
-        <v>4019.1619422248</v>
+        <v>3987565.90641437</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3090,31 +3099,31 @@
         <v>11</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>51.84760048620283</v>
+        <v>1116423.755174848</v>
       </c>
       <c r="G77">
-        <v>192.0779383618266</v>
+        <v>4841375.931316718</v>
       </c>
       <c r="H77">
-        <v>2302.900894317682</v>
+        <v>3986025.415673096</v>
       </c>
       <c r="I77">
-        <v>-824.96002819005</v>
+        <v>1115711.445836008</v>
       </c>
       <c r="J77">
-        <v>611.7614136085765</v>
+        <v>4842149.491464602</v>
       </c>
       <c r="K77">
-        <v>4001.160348957526</v>
+        <v>3987551.58054188</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3125,31 +3134,31 @@
         <v>11</v>
       </c>
       <c r="C78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>50.20452661087286</v>
+        <v>1116421.742674914</v>
       </c>
       <c r="G78">
-        <v>213.5533239878073</v>
+        <v>4841392.444148464</v>
       </c>
       <c r="H78">
-        <v>2329.739399283769</v>
+        <v>3986044.701836437</v>
       </c>
       <c r="I78">
-        <v>-760.6605791226859</v>
+        <v>1115762.018622753</v>
       </c>
       <c r="J78">
-        <v>579.7464807995599</v>
+        <v>4842100.839911013</v>
       </c>
       <c r="K78">
-        <v>3964.123277764548</v>
+        <v>3987522.106019743</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3160,31 +3169,31 @@
         <v>11</v>
       </c>
       <c r="C79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>48.70820105017874</v>
+        <v>1116419.909917947</v>
       </c>
       <c r="G79">
-        <v>235.0287096137881</v>
+        <v>4841408.956980212</v>
       </c>
       <c r="H79">
-        <v>2354.956258931056</v>
+        <v>3986062.822684624</v>
       </c>
       <c r="I79">
-        <v>-694.7778152764466</v>
+        <v>1115813.836717845</v>
       </c>
       <c r="J79">
-        <v>547.731547990543</v>
+        <v>4842052.188357423</v>
       </c>
       <c r="K79">
-        <v>3908.050728645866</v>
+        <v>3987477.482847956</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3195,31 +3204,31 @@
         <v>11</v>
       </c>
       <c r="C80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>47.33802606811761</v>
+        <v>1116418.23167505</v>
       </c>
       <c r="G80">
-        <v>256.5040952397687</v>
+        <v>4841425.469811959</v>
       </c>
       <c r="H80">
-        <v>2378.736324321446</v>
+        <v>3986079.911051726</v>
       </c>
       <c r="I80">
-        <v>-627.2727489815253</v>
+        <v>1115866.930785857</v>
       </c>
       <c r="J80">
-        <v>515.7166151815263</v>
+        <v>4842003.536803833</v>
       </c>
       <c r="K80">
-        <v>3832.94270160148</v>
+        <v>3987417.711026521</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3230,31 +3239,31 @@
         <v>11</v>
       </c>
       <c r="C81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>46.07723312217732</v>
+        <v>1116416.687407468</v>
       </c>
       <c r="G81">
-        <v>277.9794808657495</v>
+        <v>4841441.982643707</v>
       </c>
       <c r="H81">
-        <v>2401.234536861238</v>
+        <v>3986096.078278718</v>
       </c>
       <c r="I81">
-        <v>-558.105432532614</v>
+        <v>1115921.332246448</v>
       </c>
       <c r="J81">
-        <v>483.7016823725096</v>
+        <v>4841954.885250244</v>
       </c>
       <c r="K81">
-        <v>3738.79919663139</v>
+        <v>3987342.790555438</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3265,31 +3274,31 @@
         <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>44.91201444047152</v>
+        <v>1116415.260202913</v>
       </c>
       <c r="G82">
-        <v>299.4548664917302</v>
+        <v>4841458.495475455</v>
       </c>
       <c r="H82">
-        <v>2422.582052092466</v>
+        <v>3986111.418614038</v>
       </c>
       <c r="I82">
-        <v>-487.2349345489118</v>
+        <v>1115977.073292958</v>
       </c>
       <c r="J82">
-        <v>451.6867495634928</v>
+        <v>4841906.233696655</v>
       </c>
       <c r="K82">
-        <v>3625.620213735597</v>
+        <v>3987252.721434705</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3300,31 +3309,31 @@
         <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>43.83088360401545</v>
+        <v>1116413.935992377</v>
       </c>
       <c r="G83">
-        <v>320.9302521177108</v>
+        <v>4841475.008307202</v>
       </c>
       <c r="H83">
-        <v>2442.890872251887</v>
+        <v>3986126.012542549</v>
       </c>
       <c r="I83">
-        <v>-414.6193157520237</v>
+        <v>1116034.186911458</v>
       </c>
       <c r="J83">
-        <v>419.671816754476</v>
+        <v>4841857.582143066</v>
       </c>
       <c r="K83">
-        <v>3493.405752914099</v>
+        <v>3987147.503664324</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3335,31 +3344,31 @@
         <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>42.82419707492264</v>
+        <v>1116412.702964086</v>
       </c>
       <c r="G84">
-        <v>342.4056377436916</v>
+        <v>4841491.521138949</v>
       </c>
       <c r="H84">
-        <v>2462.25740319862</v>
+        <v>3986139.929341552</v>
       </c>
       <c r="I84">
-        <v>-340.2156041474069</v>
+        <v>1116092.706900269</v>
       </c>
       <c r="J84">
-        <v>387.6568839454594</v>
+        <v>4841808.930589476</v>
       </c>
       <c r="K84">
-        <v>3342.155814166899</v>
+        <v>3987027.137244294</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3370,31 +3379,31 @@
         <v>11</v>
       </c>
       <c r="C85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>41.88379091594884</v>
+        <v>1116411.551118535</v>
       </c>
       <c r="G85">
-        <v>363.8810233696723</v>
+        <v>4841508.033970698</v>
       </c>
       <c r="H85">
-        <v>2480.765222157645</v>
+        <v>3986153.229069685</v>
       </c>
       <c r="I85">
-        <v>-263.9797695946859</v>
+        <v>1116152.667889968</v>
       </c>
       <c r="J85">
-        <v>355.6419511364425</v>
+        <v>4841760.279035887</v>
       </c>
       <c r="K85">
-        <v>3171.870397493994</v>
+        <v>3986891.622174615</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3405,31 +3414,31 @@
         <v>11</v>
       </c>
       <c r="C86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>41.00270131843153</v>
+        <v>1116410.471926185</v>
       </c>
       <c r="G86">
-        <v>385.3564089956529</v>
+        <v>4841524.546802444</v>
       </c>
       <c r="H86">
-        <v>2498.487257499408</v>
+        <v>3986165.964133308</v>
       </c>
       <c r="I86">
-        <v>-185.8666977517854</v>
+        <v>1116214.105363874</v>
       </c>
       <c r="J86">
-        <v>323.6270183274259</v>
+        <v>4841711.627482297</v>
       </c>
       <c r="K86">
-        <v>2982.549502895386</v>
+        <v>3986740.958455287</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3440,31 +3449,31 @@
         <v>11</v>
       </c>
       <c r="C87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>40.17494701944135</v>
+        <v>1116409.458060956</v>
       </c>
       <c r="G87">
-        <v>406.8317946216337</v>
+        <v>4841541.059634192</v>
       </c>
       <c r="H87">
-        <v>2515.48752435125</v>
+        <v>3986178.180533728</v>
       </c>
       <c r="I87">
-        <v>-105.8301633774619</v>
+        <v>1116277.055679054</v>
       </c>
       <c r="J87">
-        <v>291.6120855184091</v>
+        <v>4841662.975928708</v>
       </c>
       <c r="K87">
-        <v>2774.193130371074</v>
+        <v>3986575.146086311</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3475,31 +3484,31 @@
         <v>11</v>
       </c>
       <c r="C88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>39.39535804484899</v>
+        <v>1116408.503190464</v>
       </c>
       <c r="G88">
-        <v>428.3071802476144</v>
+        <v>4841557.572465939</v>
       </c>
       <c r="H88">
-        <v>2531.822520409517</v>
+        <v>3986189.918870216</v>
       </c>
       <c r="I88">
-        <v>-23.82280297643241</v>
+        <v>1116341.556087833</v>
       </c>
       <c r="J88">
-        <v>259.5971527093923</v>
+        <v>4841614.324375118</v>
       </c>
       <c r="K88">
-        <v>2546.801279921057</v>
+        <v>3986394.185067685</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3510,31 +3519,31 @@
         <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>38.65943956076711</v>
+        <v>1116407.601809264</v>
       </c>
       <c r="G89">
-        <v>449.7825658735951</v>
+        <v>4841574.085297687</v>
       </c>
       <c r="H89">
-        <v>2547.542358784701</v>
+        <v>3986201.21515408</v>
       </c>
       <c r="I89">
-        <v>60.20391322908447</v>
+        <v>1116407.644759838</v>
       </c>
       <c r="J89">
-        <v>227.5822199003756</v>
+        <v>4841565.672821529</v>
       </c>
       <c r="K89">
-        <v>2300.373951545339</v>
+        <v>3986198.075399411</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3545,31 +3554,31 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>37.96326263622628</v>
+        <v>1116406.749105052</v>
       </c>
       <c r="G90">
-        <v>471.2579514995758</v>
+        <v>4841590.598129435</v>
       </c>
       <c r="H90">
-        <v>2562.691695177816</v>
+        <v>3986212.101474929</v>
       </c>
       <c r="I90">
-        <v>146.2997100180006</v>
+        <v>1116475.360804591</v>
       </c>
       <c r="J90">
-        <v>195.5672870913588</v>
+        <v>4841517.021267939</v>
       </c>
       <c r="K90">
-        <v>2034.911145243915</v>
+        <v>3985986.817081489</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3580,31 +3589,31 @@
         <v>11</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>37.30337585090845</v>
+        <v>1116405.940850395</v>
       </c>
       <c r="G91">
-        <v>492.7333371255565</v>
+        <v>4841607.110961182</v>
       </c>
       <c r="H91">
-        <v>2577.310492629636</v>
+        <v>3986222.606550225</v>
       </c>
       <c r="I91">
-        <v>234.5155365961639</v>
+        <v>1116544.744294648</v>
       </c>
       <c r="J91">
-        <v>163.5523542823422</v>
+        <v>4841468.36971435</v>
       </c>
       <c r="K91">
-        <v>1750.412861016789</v>
+        <v>3985760.410113917</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3615,31 +3624,31 @@
         <v>11</v>
       </c>
       <c r="C92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>36.67673320613785</v>
+        <v>1116405.173314437</v>
       </c>
       <c r="G92">
-        <v>514.2087227515373</v>
+        <v>4841623.62379293</v>
       </c>
       <c r="H92">
-        <v>2591.434656835765</v>
+        <v>3986232.756181818</v>
       </c>
       <c r="I92">
-        <v>324.9035967467413</v>
+        <v>1116615.836289316</v>
       </c>
       <c r="J92">
-        <v>131.5374214733253</v>
+        <v>4841419.718160761</v>
       </c>
       <c r="K92">
-        <v>1446.879098863957</v>
+        <v>3985518.854496696</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3650,31 +3659,31 @@
         <v>11</v>
       </c>
       <c r="C93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>36.08063490177403</v>
+        <v>1116404.443190359</v>
       </c>
       <c r="G93">
-        <v>535.6841083775179</v>
+        <v>4841640.136624678</v>
       </c>
       <c r="H93">
-        <v>2605.096567457236</v>
+        <v>3986242.57363775</v>
       </c>
       <c r="I93">
-        <v>417.5173797230369</v>
+        <v>1116688.67885895</v>
       </c>
       <c r="J93">
-        <v>99.52248866430854</v>
+        <v>4841371.066607172</v>
       </c>
       <c r="K93">
-        <v>1124.309858785422</v>
+        <v>3985262.150229828</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3685,31 +3694,31 @@
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>35.51267835136238</v>
+        <v>1116403.747535381</v>
       </c>
       <c r="G94">
-        <v>557.1594940034986</v>
+        <v>4841656.649456425</v>
       </c>
       <c r="H94">
-        <v>2618.325525211878</v>
+        <v>3986252.07997353</v>
       </c>
       <c r="I94">
-        <v>512.4116919020042</v>
+        <v>1116763.315109847</v>
       </c>
       <c r="J94">
-        <v>67.50755585529188</v>
+        <v>4841322.415053582</v>
       </c>
       <c r="K94">
-        <v>782.7051407811842</v>
+        <v>3984990.29731331</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3720,31 +3729,31 @@
         <v>11</v>
       </c>
       <c r="C95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>34.97071740808504</v>
+        <v>1116403.08372082</v>
       </c>
       <c r="G95">
-        <v>578.6348796294793</v>
+        <v>4841673.162288172</v>
       </c>
       <c r="H95">
-        <v>2631.148130275122</v>
+        <v>3986261.294304061</v>
       </c>
       <c r="I95">
-        <v>609.6426892172144</v>
+        <v>1116839.789209758</v>
       </c>
       <c r="J95">
-        <v>35.49262304627508</v>
+        <v>4841273.763499993</v>
       </c>
       <c r="K95">
-        <v>422.0649448512416</v>
+        <v>3984703.295747143</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3755,31 +3764,31 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>34.45282822349908</v>
+        <v>1116402.449390274</v>
       </c>
       <c r="G96">
-        <v>600.11026525546</v>
+        <v>4841689.675119921</v>
       </c>
       <c r="H96">
-        <v>2643.58860427787</v>
+        <v>3986270.234035017</v>
       </c>
       <c r="I96">
-        <v>709.2679103904334</v>
+        <v>1116918.146414025</v>
       </c>
       <c r="J96">
-        <v>3.477690237258271</v>
+        <v>4841225.111946403</v>
       </c>
       <c r="K96">
-        <v>42.38927099559547</v>
+        <v>3984401.145531327</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3790,31 +3799,31 @@
         <v>11</v>
       </c>
       <c r="C97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>33.95728050085052</v>
+        <v>1116401.842424407</v>
       </c>
       <c r="G97">
-        <v>621.5856508814408</v>
+        <v>4841706.187951667</v>
       </c>
       <c r="H97">
-        <v>2655.669065698686</v>
+        <v>3986278.915060747</v>
       </c>
       <c r="I97">
-        <v>811.3463109815193</v>
+        <v>1116998.433092359</v>
       </c>
       <c r="J97">
-        <v>-28.53724257175838</v>
+        <v>4841176.460392813</v>
       </c>
       <c r="K97">
-        <v>-356.3218807857533</v>
+        <v>3984083.846665863</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3825,31 +3834,31 @@
         <v>11</v>
       </c>
       <c r="C98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>33.48251316395807</v>
+        <v>1116401.260911154</v>
       </c>
       <c r="G98">
-        <v>643.0610365074214</v>
+        <v>4841722.700783416</v>
       </c>
       <c r="H98">
-        <v>2667.409766517904</v>
+        <v>3986287.351934336</v>
       </c>
       <c r="I98">
-        <v>915.9382982767545</v>
+        <v>1117080.696756285</v>
       </c>
       <c r="J98">
-        <v>-60.55217538077519</v>
+        <v>4841127.808839224</v>
       </c>
       <c r="K98">
-        <v>-774.0685104928069</v>
+        <v>3983751.399150751</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3860,31 +3869,31 @@
         <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D99" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>33.0271136620504</v>
+        <v>1116400.703120369</v>
       </c>
       <c r="G99">
-        <v>664.5364221334022</v>
+        <v>4841739.213615162</v>
       </c>
       <c r="H99">
-        <v>2678.829296494026</v>
+        <v>3986295.558014394</v>
       </c>
       <c r="I99">
-        <v>1023.105767036272</v>
+        <v>1117164.986087254</v>
       </c>
       <c r="J99">
-        <v>-92.56710818979199</v>
+        <v>4841079.157285634</v>
       </c>
       <c r="K99">
-        <v>-1210.850618125565</v>
+        <v>3983403.802985989</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3895,31 +3904,31 @@
         <v>11</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>32.58980028553818</v>
+        <v>1116400.167482164</v>
       </c>
       <c r="G100">
-        <v>686.0118077593829</v>
+        <v>4841755.72644691</v>
       </c>
       <c r="H100">
-        <v>2689.944760236834</v>
+        <v>3986303.545592302</v>
       </c>
       <c r="I100">
-        <v>1132.912136121729</v>
+        <v>1117251.350965453</v>
       </c>
       <c r="J100">
-        <v>-124.5820409988088</v>
+        <v>4841030.505732046</v>
       </c>
       <c r="K100">
-        <v>-1666.668203684027</v>
+        <v>3983041.058171578</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3930,31 +3939,31 @@
         <v>11</v>
       </c>
       <c r="C101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>32.16940698845166</v>
+        <v>1116399.652568321</v>
       </c>
       <c r="G101">
-        <v>707.4871933853635</v>
+        <v>4841772.239278658</v>
       </c>
       <c r="H101">
-        <v>2700.771931311837</v>
+        <v>3986311.326002951</v>
       </c>
       <c r="I101">
-        <v>1245.422386025907</v>
+        <v>1117339.842499324</v>
       </c>
       <c r="J101">
-        <v>-156.5969738078253</v>
+        <v>4840981.854178456</v>
       </c>
       <c r="K101">
-        <v>-2141.521267168189</v>
+        <v>3982663.164707519</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3965,31 +3974,31 @@
         <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>31.76487030825869</v>
+        <v>1116399.157076271</v>
       </c>
       <c r="G102">
-        <v>728.9625790113444</v>
+        <v>4841788.752110405</v>
       </c>
       <c r="H102">
-        <v>2711.325386861025</v>
+        <v>3986318.909721485</v>
       </c>
       <c r="I102">
-        <v>1360.703097326445</v>
+        <v>1117430.513055805</v>
       </c>
       <c r="J102">
-        <v>-188.6119066168421</v>
+        <v>4840933.202624867</v>
       </c>
       <c r="K102">
-        <v>-2635.409808578057</v>
+        <v>3982270.122593811</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4000,31 +4009,31 @@
         <v>11</v>
       </c>
       <c r="C103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>31.37521804898311</v>
+        <v>1116398.679815232</v>
       </c>
       <c r="G103">
-        <v>750.437964637325</v>
+        <v>4841805.264942152</v>
       </c>
       <c r="H103">
-        <v>2721.618625623206</v>
+        <v>3986326.306448103</v>
       </c>
       <c r="I103">
-        <v>1478.822490086448</v>
+        <v>1117523.416291324</v>
       </c>
       <c r="J103">
-        <v>-220.6268394258589</v>
+        <v>4840884.551071277</v>
       </c>
       <c r="K103">
-        <v>-3148.333827913631</v>
+        <v>3981861.931830454</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4035,31 +4044,31 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>30.99955945346499</v>
+        <v>1116398.219694169</v>
       </c>
       <c r="G104">
-        <v>771.9133502633057</v>
+        <v>4841821.777773901</v>
       </c>
       <c r="H104">
-        <v>2731.664171751367</v>
+        <v>3986333.525182668</v>
       </c>
       <c r="I104">
-        <v>1599.850464225317</v>
+        <v>1117618.607183549</v>
       </c>
       <c r="J104">
-        <v>-252.6417722348757</v>
+        <v>4840835.899517687</v>
       </c>
       <c r="K104">
-        <v>-3680.293325174907</v>
+        <v>3981438.592417448</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4070,31 +4079,31 @@
         <v>11</v>
       </c>
       <c r="C105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>30.63707663863346</v>
+        <v>1116397.775711307</v>
       </c>
       <c r="G105">
-        <v>793.3887358892864</v>
+        <v>4841838.290605647</v>
       </c>
       <c r="H105">
-        <v>2741.47366643002</v>
+        <v>3986340.574290541</v>
       </c>
       <c r="I105">
-        <v>1723.858640883664</v>
+        <v>1117716.142063921</v>
       </c>
       <c r="J105">
-        <v>-284.6567050438925</v>
+        <v>4840787.247964098</v>
       </c>
       <c r="K105">
-        <v>-4231.288300361887</v>
+        <v>3981000.104354794</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4105,31 +4114,31 @@
         <v>11</v>
       </c>
       <c r="C106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>30.28701710637088</v>
+        <v>1116397.346944959</v>
       </c>
       <c r="G106">
-        <v>814.8641215152671</v>
+        <v>4841854.803437396</v>
       </c>
       <c r="H106">
-        <v>2751.057948973511</v>
+        <v>3986347.461560858</v>
       </c>
       <c r="I106">
-        <v>1850.920404806788</v>
+        <v>1117816.078650991</v>
       </c>
       <c r="J106">
-        <v>-316.671637852909</v>
+        <v>4840738.596410509</v>
       </c>
       <c r="K106">
-        <v>-4801.318753474567</v>
+        <v>3980546.46764249</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4140,31 +4149,1886 @@
         <v>11</v>
       </c>
       <c r="C107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>29.94868717391901</v>
+        <v>1116396.932545474</v>
       </c>
       <c r="G107">
-        <v>836.3395071412477</v>
+        <v>4841871.316269143</v>
       </c>
       <c r="H107">
-        <v>2760.427128822117</v>
+        <v>3986354.19425827</v>
       </c>
       <c r="I107">
-        <v>1981.110947771842</v>
+        <v>1117918.476084579</v>
       </c>
       <c r="J107">
-        <v>-348.6865706619258</v>
+        <v>4840689.944856919</v>
       </c>
       <c r="K107">
-        <v>-5390.384684512955</v>
+        <v>3980077.682280539</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>81</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" t="s">
+        <v>15</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G108">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H108">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I108">
+        <v>1114861.153530814</v>
+      </c>
+      <c r="J108">
+        <v>4843222.549066822</v>
+      </c>
+      <c r="K108">
+        <v>3984369.200216781</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>81</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G109">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H109">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I109">
+        <v>1114890.767521862</v>
+      </c>
+      <c r="J109">
+        <v>4843173.897485876</v>
+      </c>
+      <c r="K109">
+        <v>3984672.996123288</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>81</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G110">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H110">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I110">
+        <v>1114921.110730195</v>
+      </c>
+      <c r="J110">
+        <v>4843125.245904928</v>
+      </c>
+      <c r="K110">
+        <v>3984961.643373346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>81</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G111">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H111">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I111">
+        <v>1114952.201112118</v>
+      </c>
+      <c r="J111">
+        <v>4843076.594323982</v>
+      </c>
+      <c r="K111">
+        <v>3985235.141966955</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>81</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G112">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H112">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I112">
+        <v>1114984.057066093</v>
+      </c>
+      <c r="J112">
+        <v>4843027.942743034</v>
+      </c>
+      <c r="K112">
+        <v>3985493.491904115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>81</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G113">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H113">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I113">
+        <v>1115016.697443628</v>
+      </c>
+      <c r="J113">
+        <v>4842979.291162088</v>
+      </c>
+      <c r="K113">
+        <v>3985736.693184827</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>81</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>15</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G114">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H114">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I114">
+        <v>1115050.141560431</v>
+      </c>
+      <c r="J114">
+        <v>4842930.63958114</v>
+      </c>
+      <c r="K114">
+        <v>3985964.745809089</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>81</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" t="s">
+        <v>15</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G115">
+        <v>4841125.078696525</v>
+      </c>
+      <c r="H115">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I115">
+        <v>1115084.409207842</v>
+      </c>
+      <c r="J115">
+        <v>4842881.988000194</v>
+      </c>
+      <c r="K115">
+        <v>3986177.649776903</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>81</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116580.205748416</v>
+      </c>
+      <c r="G116">
+        <v>4841141.591517493</v>
+      </c>
+      <c r="H116">
+        <v>3985228.628005669</v>
+      </c>
+      <c r="I116">
+        <v>1115119.520664545</v>
+      </c>
+      <c r="J116">
+        <v>4842833.336419246</v>
+      </c>
+      <c r="K116">
+        <v>3986375.405088268</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>81</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" t="s">
+        <v>15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116531.525110446</v>
+      </c>
+      <c r="G117">
+        <v>4841158.104338462</v>
+      </c>
+      <c r="H117">
+        <v>3985427.882427427</v>
+      </c>
+      <c r="I117">
+        <v>1115155.496708568</v>
+      </c>
+      <c r="J117">
+        <v>4842784.6848383</v>
+      </c>
+      <c r="K117">
+        <v>3986558.011743184</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>81</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" t="s">
+        <v>15</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116502.927677724</v>
+      </c>
+      <c r="G118">
+        <v>4841174.61715943</v>
+      </c>
+      <c r="H118">
+        <v>3985546.568551282</v>
+      </c>
+      <c r="I118">
+        <v>1115192.358629577</v>
+      </c>
+      <c r="J118">
+        <v>4842736.033257352</v>
+      </c>
+      <c r="K118">
+        <v>3986725.469741651</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>81</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" t="s">
+        <v>15</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116484.874880176</v>
+      </c>
+      <c r="G119">
+        <v>4841191.129980399</v>
+      </c>
+      <c r="H119">
+        <v>3985631.385502314</v>
+      </c>
+      <c r="I119">
+        <v>1115230.128241479</v>
+      </c>
+      <c r="J119">
+        <v>4842687.381676406</v>
+      </c>
+      <c r="K119">
+        <v>3986877.779083669</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>81</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" t="s">
+        <v>15</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116472.284932446</v>
+      </c>
+      <c r="G120">
+        <v>4841207.642801367</v>
+      </c>
+      <c r="H120">
+        <v>3985697.432416641</v>
+      </c>
+      <c r="I120">
+        <v>1115268.827895326</v>
+      </c>
+      <c r="J120">
+        <v>4842638.730095458</v>
+      </c>
+      <c r="K120">
+        <v>3987014.939769238</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>81</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" t="s">
+        <v>15</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116462.892454414</v>
+      </c>
+      <c r="G121">
+        <v>4841224.155622336</v>
+      </c>
+      <c r="H121">
+        <v>3985751.529962542</v>
+      </c>
+      <c r="I121">
+        <v>1115308.480492546</v>
+      </c>
+      <c r="J121">
+        <v>4842590.078514512</v>
+      </c>
+      <c r="K121">
+        <v>3987136.951798358</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>81</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116455.548848214</v>
+      </c>
+      <c r="G122">
+        <v>4841240.668443304</v>
+      </c>
+      <c r="H122">
+        <v>3985797.346634989</v>
+      </c>
+      <c r="I122">
+        <v>1115349.109498494</v>
+      </c>
+      <c r="J122">
+        <v>4842541.426933564</v>
+      </c>
+      <c r="K122">
+        <v>3987243.81517103</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>81</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116449.607336092</v>
+      </c>
+      <c r="G123">
+        <v>4841257.181264272</v>
+      </c>
+      <c r="H123">
+        <v>3985837.084253878</v>
+      </c>
+      <c r="I123">
+        <v>1115390.738956334</v>
+      </c>
+      <c r="J123">
+        <v>4842492.775352618</v>
+      </c>
+      <c r="K123">
+        <v>3987335.529887252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>81</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116444.673763952</v>
+      </c>
+      <c r="G124">
+        <v>4841273.694085241</v>
+      </c>
+      <c r="H124">
+        <v>3985872.168639172</v>
+      </c>
+      <c r="I124">
+        <v>1115433.393501276</v>
+      </c>
+      <c r="J124">
+        <v>4842444.12377167</v>
+      </c>
+      <c r="K124">
+        <v>3987412.095947026</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>81</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116440.492932768</v>
+      </c>
+      <c r="G125">
+        <v>4841290.206906209</v>
+      </c>
+      <c r="H125">
+        <v>3985903.576224003</v>
+      </c>
+      <c r="I125">
+        <v>1115477.098375145</v>
+      </c>
+      <c r="J125">
+        <v>4842395.472190724</v>
+      </c>
+      <c r="K125">
+        <v>3987473.513350351</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>81</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" t="s">
+        <v>15</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116436.891554586</v>
+      </c>
+      <c r="G126">
+        <v>4841306.719727178</v>
+      </c>
+      <c r="H126">
+        <v>3985932.005076505</v>
+      </c>
+      <c r="I126">
+        <v>1115521.879441326</v>
+      </c>
+      <c r="J126">
+        <v>4842346.820609776</v>
+      </c>
+      <c r="K126">
+        <v>3987519.782097227</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>81</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" t="s">
+        <v>15</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116433.747365345</v>
+      </c>
+      <c r="G127">
+        <v>4841323.232548147</v>
+      </c>
+      <c r="H127">
+        <v>3985957.9715872</v>
+      </c>
+      <c r="I127">
+        <v>1115567.763200063</v>
+      </c>
+      <c r="J127">
+        <v>4842298.169028829</v>
+      </c>
+      <c r="K127">
+        <v>3987550.902187654</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>81</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116430.971343416</v>
+      </c>
+      <c r="G128">
+        <v>4841339.745369115</v>
+      </c>
+      <c r="H128">
+        <v>3985981.868510881</v>
+      </c>
+      <c r="I128">
+        <v>1115614.776804147</v>
+      </c>
+      <c r="J128">
+        <v>4842249.517447882</v>
+      </c>
+      <c r="K128">
+        <v>3987566.873621633</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>81</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" t="s">
+        <v>15</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116428.49694481</v>
+      </c>
+      <c r="G129">
+        <v>4841356.258190083</v>
+      </c>
+      <c r="H129">
+        <v>3986004.001534373</v>
+      </c>
+      <c r="I129">
+        <v>1115662.94807498</v>
+      </c>
+      <c r="J129">
+        <v>4842200.865866936</v>
+      </c>
+      <c r="K129">
+        <v>3987567.696399162</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>81</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" t="s">
+        <v>15</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116426.273306883</v>
+      </c>
+      <c r="G130">
+        <v>4841372.771011052</v>
+      </c>
+      <c r="H130">
+        <v>3986024.613250635</v>
+      </c>
+      <c r="I130">
+        <v>1115712.30551904</v>
+      </c>
+      <c r="J130">
+        <v>4842152.214285988</v>
+      </c>
+      <c r="K130">
+        <v>3987553.370520242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>81</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" t="s">
+        <v>15</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116424.26080241</v>
+      </c>
+      <c r="G131">
+        <v>4841389.28383202</v>
+      </c>
+      <c r="H131">
+        <v>3986043.899410092</v>
+      </c>
+      <c r="I131">
+        <v>1115762.878344753</v>
+      </c>
+      <c r="J131">
+        <v>4842103.562705041</v>
+      </c>
+      <c r="K131">
+        <v>3987523.895984874</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>81</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" t="s">
+        <v>15</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116422.428041309</v>
+      </c>
+      <c r="G132">
+        <v>4841405.796652989</v>
+      </c>
+      <c r="H132">
+        <v>3986062.020254632</v>
+      </c>
+      <c r="I132">
+        <v>1115814.696479772</v>
+      </c>
+      <c r="J132">
+        <v>4842054.911124094</v>
+      </c>
+      <c r="K132">
+        <v>3987479.272793057</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>81</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116420.749794627</v>
+      </c>
+      <c r="G133">
+        <v>4841422.309473957</v>
+      </c>
+      <c r="H133">
+        <v>3986079.108618294</v>
+      </c>
+      <c r="I133">
+        <v>1115867.790588694</v>
+      </c>
+      <c r="J133">
+        <v>4842006.259543147</v>
+      </c>
+      <c r="K133">
+        <v>3987419.50094479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>81</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" t="s">
+        <v>15</v>
+      </c>
+      <c r="D134" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116419.205523562</v>
+      </c>
+      <c r="G134">
+        <v>4841438.822294925</v>
+      </c>
+      <c r="H134">
+        <v>3986095.275842031</v>
+      </c>
+      <c r="I134">
+        <v>1115922.192091204</v>
+      </c>
+      <c r="J134">
+        <v>4841957.6079622</v>
+      </c>
+      <c r="K134">
+        <v>3987344.580440076</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>81</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" t="s">
+        <v>15</v>
+      </c>
+      <c r="D135" t="s">
+        <v>17</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116417.778315787</v>
+      </c>
+      <c r="G135">
+        <v>4841455.335115895</v>
+      </c>
+      <c r="H135">
+        <v>3986110.616174263</v>
+      </c>
+      <c r="I135">
+        <v>1115977.933180663</v>
+      </c>
+      <c r="J135">
+        <v>4841908.956381253</v>
+      </c>
+      <c r="K135">
+        <v>3987254.511278912</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>81</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" t="s">
+        <v>15</v>
+      </c>
+      <c r="D136" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116416.454102264</v>
+      </c>
+      <c r="G136">
+        <v>4841471.847936862</v>
+      </c>
+      <c r="H136">
+        <v>3986125.210099836</v>
+      </c>
+      <c r="I136">
+        <v>1116035.04684317</v>
+      </c>
+      <c r="J136">
+        <v>4841860.304800306</v>
+      </c>
+      <c r="K136">
+        <v>3987149.2934613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>81</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" t="s">
+        <v>15</v>
+      </c>
+      <c r="D137" t="s">
+        <v>17</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116415.221071192</v>
+      </c>
+      <c r="G137">
+        <v>4841488.360757831</v>
+      </c>
+      <c r="H137">
+        <v>3986139.126896038</v>
+      </c>
+      <c r="I137">
+        <v>1116093.566877073</v>
+      </c>
+      <c r="J137">
+        <v>4841811.653219359</v>
+      </c>
+      <c r="K137">
+        <v>3987028.926987238</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>81</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" t="s">
+        <v>15</v>
+      </c>
+      <c r="D138" t="s">
+        <v>17</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116414.069223043</v>
+      </c>
+      <c r="G138">
+        <v>4841504.8735788</v>
+      </c>
+      <c r="H138">
+        <v>3986152.426621493</v>
+      </c>
+      <c r="I138">
+        <v>1116153.527912973</v>
+      </c>
+      <c r="J138">
+        <v>4841763.001638412</v>
+      </c>
+      <c r="K138">
+        <v>3986893.411856727</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>81</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" t="s">
+        <v>15</v>
+      </c>
+      <c r="D139" t="s">
+        <v>17</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116412.990028259</v>
+      </c>
+      <c r="G139">
+        <v>4841521.386399767</v>
+      </c>
+      <c r="H139">
+        <v>3986165.161682553</v>
+      </c>
+      <c r="I139">
+        <v>1116214.965434219</v>
+      </c>
+      <c r="J139">
+        <v>4841714.350057465</v>
+      </c>
+      <c r="K139">
+        <v>3986742.748069768</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>81</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>15</v>
+      </c>
+      <c r="D140" t="s">
+        <v>17</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116411.976160743</v>
+      </c>
+      <c r="G140">
+        <v>4841537.899220737</v>
+      </c>
+      <c r="H140">
+        <v>3986177.378080513</v>
+      </c>
+      <c r="I140">
+        <v>1116277.915797903</v>
+      </c>
+      <c r="J140">
+        <v>4841665.698476519</v>
+      </c>
+      <c r="K140">
+        <v>3986576.935626359</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>81</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>15</v>
+      </c>
+      <c r="D141" t="s">
+        <v>17</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116411.021288097</v>
+      </c>
+      <c r="G141">
+        <v>4841554.412041704</v>
+      </c>
+      <c r="H141">
+        <v>3986189.116414638</v>
+      </c>
+      <c r="I141">
+        <v>1116342.416256381</v>
+      </c>
+      <c r="J141">
+        <v>4841617.046895571</v>
+      </c>
+      <c r="K141">
+        <v>3986395.974526502</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>81</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>15</v>
+      </c>
+      <c r="D142" t="s">
+        <v>17</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116410.119904864</v>
+      </c>
+      <c r="G142">
+        <v>4841570.924862674</v>
+      </c>
+      <c r="H142">
+        <v>3986200.412696228</v>
+      </c>
+      <c r="I142">
+        <v>1116408.504979309</v>
+      </c>
+      <c r="J142">
+        <v>4841568.395314625</v>
+      </c>
+      <c r="K142">
+        <v>3986199.864770196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>81</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>15</v>
+      </c>
+      <c r="D143" t="s">
+        <v>17</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116409.267198729</v>
+      </c>
+      <c r="G143">
+        <v>4841587.437683642</v>
+      </c>
+      <c r="H143">
+        <v>3986211.299014886</v>
+      </c>
+      <c r="I143">
+        <v>1116476.221076239</v>
+      </c>
+      <c r="J143">
+        <v>4841519.743733677</v>
+      </c>
+      <c r="K143">
+        <v>3985988.606357441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>81</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" t="s">
+        <v>15</v>
+      </c>
+      <c r="D144" t="s">
+        <v>17</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116408.458942249</v>
+      </c>
+      <c r="G144">
+        <v>4841603.950504609</v>
+      </c>
+      <c r="H144">
+        <v>3986221.804088067</v>
+      </c>
+      <c r="I144">
+        <v>1116545.604619758</v>
+      </c>
+      <c r="J144">
+        <v>4841471.092152731</v>
+      </c>
+      <c r="K144">
+        <v>3985762.199288237</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>81</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>15</v>
+      </c>
+      <c r="D145" t="s">
+        <v>17</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116407.691404559</v>
+      </c>
+      <c r="G145">
+        <v>4841620.463325579</v>
+      </c>
+      <c r="H145">
+        <v>3986231.953717616</v>
+      </c>
+      <c r="I145">
+        <v>1116616.696669204</v>
+      </c>
+      <c r="J145">
+        <v>4841422.440571783</v>
+      </c>
+      <c r="K145">
+        <v>3985520.643562585</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>81</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>15</v>
+      </c>
+      <c r="D146" t="s">
+        <v>17</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116406.961278835</v>
+      </c>
+      <c r="G146">
+        <v>4841636.976146547</v>
+      </c>
+      <c r="H146">
+        <v>3986241.771171572</v>
+      </c>
+      <c r="I146">
+        <v>1116689.539294965</v>
+      </c>
+      <c r="J146">
+        <v>4841373.788990837</v>
+      </c>
+      <c r="K146">
+        <v>3985263.939180484</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>81</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>15</v>
+      </c>
+      <c r="D147" t="s">
+        <v>17</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116406.265622288</v>
+      </c>
+      <c r="G147">
+        <v>4841653.488967516</v>
+      </c>
+      <c r="H147">
+        <v>3986251.277505439</v>
+      </c>
+      <c r="I147">
+        <v>1116764.175603371</v>
+      </c>
+      <c r="J147">
+        <v>4841325.137409889</v>
+      </c>
+      <c r="K147">
+        <v>3984992.086141933</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>81</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>15</v>
+      </c>
+      <c r="D148" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116405.60180623</v>
+      </c>
+      <c r="G148">
+        <v>4841670.001788484</v>
+      </c>
+      <c r="H148">
+        <v>3986260.491834115</v>
+      </c>
+      <c r="I148">
+        <v>1116840.649762207</v>
+      </c>
+      <c r="J148">
+        <v>4841276.485828943</v>
+      </c>
+      <c r="K148">
+        <v>3984705.084446934</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>81</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" t="s">
+        <v>15</v>
+      </c>
+      <c r="D149" t="s">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116404.967474252</v>
+      </c>
+      <c r="G149">
+        <v>4841686.514609453</v>
+      </c>
+      <c r="H149">
+        <v>3986269.431563271</v>
+      </c>
+      <c r="I149">
+        <v>1116919.00702685</v>
+      </c>
+      <c r="J149">
+        <v>4841227.834247995</v>
+      </c>
+      <c r="K149">
+        <v>3984402.934095486</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>81</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" t="s">
+        <v>17</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116404.360507017</v>
+      </c>
+      <c r="G150">
+        <v>4841703.027430421</v>
+      </c>
+      <c r="H150">
+        <v>3986278.112587254</v>
+      </c>
+      <c r="I150">
+        <v>1116999.293767047</v>
+      </c>
+      <c r="J150">
+        <v>4841179.182667048</v>
+      </c>
+      <c r="K150">
+        <v>3984085.635087589</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>81</v>
+      </c>
+      <c r="B151" t="s">
+        <v>12</v>
+      </c>
+      <c r="C151" t="s">
+        <v>15</v>
+      </c>
+      <c r="D151" t="s">
+        <v>17</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116403.778992452</v>
+      </c>
+      <c r="G151">
+        <v>4841719.540251389</v>
+      </c>
+      <c r="H151">
+        <v>3986286.549459144</v>
+      </c>
+      <c r="I151">
+        <v>1117081.557494359</v>
+      </c>
+      <c r="J151">
+        <v>4841130.531086101</v>
+      </c>
+      <c r="K151">
+        <v>3983753.187423243</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>81</v>
+      </c>
+      <c r="B152" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" t="s">
+        <v>15</v>
+      </c>
+      <c r="D152" t="s">
+        <v>17</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116403.221200409</v>
+      </c>
+      <c r="G152">
+        <v>4841736.053072358</v>
+      </c>
+      <c r="H152">
+        <v>3986294.75553755</v>
+      </c>
+      <c r="I152">
+        <v>1117165.846890275</v>
+      </c>
+      <c r="J152">
+        <v>4841081.879505154</v>
+      </c>
+      <c r="K152">
+        <v>3983405.591102448</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>81</v>
+      </c>
+      <c r="B153" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" t="s">
+        <v>15</v>
+      </c>
+      <c r="D153" t="s">
+        <v>17</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116402.685560995</v>
+      </c>
+      <c r="G153">
+        <v>4841752.565893326</v>
+      </c>
+      <c r="H153">
+        <v>3986302.74311385</v>
+      </c>
+      <c r="I153">
+        <v>1117252.21183502</v>
+      </c>
+      <c r="J153">
+        <v>4841033.227924207</v>
+      </c>
+      <c r="K153">
+        <v>3983042.846125205</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>81</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>17</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116402.170645992</v>
+      </c>
+      <c r="G154">
+        <v>4841769.078714295</v>
+      </c>
+      <c r="H154">
+        <v>3986310.523522933</v>
+      </c>
+      <c r="I154">
+        <v>1117340.703437076</v>
+      </c>
+      <c r="J154">
+        <v>4840984.57634326</v>
+      </c>
+      <c r="K154">
+        <v>3982664.952491512</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>81</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>15</v>
+      </c>
+      <c r="D155" t="s">
+        <v>17</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116401.675152824</v>
+      </c>
+      <c r="G155">
+        <v>4841785.591535263</v>
+      </c>
+      <c r="H155">
+        <v>3986318.10723994</v>
+      </c>
+      <c r="I155">
+        <v>1117431.374063421</v>
+      </c>
+      <c r="J155">
+        <v>4840935.924762313</v>
+      </c>
+      <c r="K155">
+        <v>3982271.910201371</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>81</v>
+      </c>
+      <c r="B156" t="s">
+        <v>12</v>
+      </c>
+      <c r="C156" t="s">
+        <v>15</v>
+      </c>
+      <c r="D156" t="s">
+        <v>17</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116401.197890708</v>
+      </c>
+      <c r="G156">
+        <v>4841802.104356231</v>
+      </c>
+      <c r="H156">
+        <v>3986325.503965069</v>
+      </c>
+      <c r="I156">
+        <v>1117524.277370525</v>
+      </c>
+      <c r="J156">
+        <v>4840887.273181366</v>
+      </c>
+      <c r="K156">
+        <v>3981863.71925478</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>81</v>
+      </c>
+      <c r="B157" t="s">
+        <v>12</v>
+      </c>
+      <c r="C157" t="s">
+        <v>15</v>
+      </c>
+      <c r="D157" t="s">
+        <v>17</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116400.737768607</v>
+      </c>
+      <c r="G157">
+        <v>4841818.617177201</v>
+      </c>
+      <c r="H157">
+        <v>3986332.72269818</v>
+      </c>
+      <c r="I157">
+        <v>1117619.468336096</v>
+      </c>
+      <c r="J157">
+        <v>4840838.621600419</v>
+      </c>
+      <c r="K157">
+        <v>3981440.379651741</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>81</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>15</v>
+      </c>
+      <c r="D158" t="s">
+        <v>17</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116400.293784744</v>
+      </c>
+      <c r="G158">
+        <v>4841835.129998168</v>
+      </c>
+      <c r="H158">
+        <v>3986339.771804634</v>
+      </c>
+      <c r="I158">
+        <v>1117717.003291621</v>
+      </c>
+      <c r="J158">
+        <v>4840789.970019472</v>
+      </c>
+      <c r="K158">
+        <v>3981001.891392253</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>81</v>
+      </c>
+      <c r="B159" t="s">
+        <v>12</v>
+      </c>
+      <c r="C159" t="s">
+        <v>15</v>
+      </c>
+      <c r="D159" t="s">
+        <v>17</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116399.865017429</v>
+      </c>
+      <c r="G159">
+        <v>4841851.642819137</v>
+      </c>
+      <c r="H159">
+        <v>3986346.659073566</v>
+      </c>
+      <c r="I159">
+        <v>1117816.939955695</v>
+      </c>
+      <c r="J159">
+        <v>4840741.318438525</v>
+      </c>
+      <c r="K159">
+        <v>3980548.254476316</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>81</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160" t="s">
+        <v>15</v>
+      </c>
+      <c r="D160" t="s">
+        <v>17</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116399.45061701</v>
+      </c>
+      <c r="G160">
+        <v>4841868.155640106</v>
+      </c>
+      <c r="H160">
+        <v>3986353.391769622</v>
+      </c>
+      <c r="I160">
+        <v>1117919.337468182</v>
+      </c>
+      <c r="J160">
+        <v>4840692.666857578</v>
+      </c>
+      <c r="K160">
+        <v>3980079.468903931</v>
       </c>
     </row>
   </sheetData>
